--- a/CardPayments.xlsx
+++ b/CardPayments.xlsx
@@ -3,28 +3,43 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709C2FAB-1724-4E57-8B17-0B98ACFE9313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DDF1B9-7D59-474C-A381-2F909E09620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30540" yWindow="3990" windowWidth="14400" windowHeight="7365" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot-Sample" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Pivot1" sheetId="5" r:id="rId2"/>
+    <sheet name="Combined" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="24" r:id="rId6"/>
+    <pivotCache cacheId="28" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="35">
   <si>
     <t>Expense</t>
   </si>
@@ -105,6 +120,30 @@
   </si>
   <si>
     <t>Sum of Value</t>
+  </si>
+  <si>
+    <t>Gym membership</t>
+  </si>
+  <si>
+    <t>06.01.2019</t>
+  </si>
+  <si>
+    <t>Board Games</t>
+  </si>
+  <si>
+    <t>23.06.2019</t>
+  </si>
+  <si>
+    <t>Computer Games</t>
+  </si>
+  <si>
+    <t>21.03.2019</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>18.05.2019</t>
   </si>
 </sst>
 </file>
@@ -197,6 +236,42 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="45153.89684050926" createdVersion="1" refreshedVersion="8" recordCount="35" xr:uid="{9DDD9FFE-14F8-46E1-AADE-A8AD58E4FF75}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C36" sheet="Combined"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Expense" numFmtId="0">
+      <sharedItems count="11">
+        <s v="Food"/>
+        <s v="Vacation"/>
+        <s v="Savings"/>
+        <s v="Rent"/>
+        <s v="Electricity"/>
+        <s v="Plumbing"/>
+        <s v="Phone"/>
+        <s v="Gym membership"/>
+        <s v="Board Games"/>
+        <s v="Computer Games"/>
+        <s v="Party"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Value" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="2000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
   <r>
@@ -353,12 +428,192 @@
     <x v="6"/>
     <s v="01.05.2019"/>
     <n v="20"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="35">
+  <r>
+    <x v="0"/>
+    <s v="01.01.2019"/>
+    <n v="863"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="07.01.2019"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="01.01.2019"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="01.01.2019"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="01.01.2019"/>
+    <n v="121"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="01.01.2019"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="01.01.2019"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="01.02.2019"/>
+    <n v="1243"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="01.02.2019"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="01.02.2019"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="01.02.2019"/>
+    <n v="142"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="01.02.2019"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="01.02.2019"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="01.03.2019"/>
+    <n v="975"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="01.03.2019"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="01.03.2019"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="01.03.2019"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="01.03.2019"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="01.03.2019"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="01.04.2019"/>
+    <n v="1234"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="01.04.2019"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="01.04.2019"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="01.04.2019"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="01.04.2019"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="01.04.2019"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="01.05.2019"/>
+    <n v="863"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="01.05.2019"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="01.05.2019"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="01.05.2019"/>
+    <n v="121"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="01.05.2019"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="01.05.2019"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="06.01.2019"/>
+    <n v="452"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="23.06.2019"/>
+    <n v="354"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="21.03.2019"/>
+    <n v="1283"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="18.05.2019"/>
+    <n v="425"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF6C42A9-0010-4302-BC2A-FB51090943A3}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF6C42A9-0010-4302-BC2A-FB51090943A3}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -415,6 +670,105 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{456F566F-9872-4AA2-A2B2-867CF66EAD80}" name="Final_Pivot" cacheId="28" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+  <location ref="A1:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
+      <items count="12">
+        <item x="8"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -688,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043D29BA-3DBE-41EB-B3E2-E95305EA4DB7}">
   <dimension ref="A3:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -776,6 +1130,947 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5353AD29-FE33-48C1-B6F8-8AC9397BFA46}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4">
+        <v>354</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C12" si="0">(B2/$B$13)*100</f>
+        <v>1.7070936008101463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1283</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>6.1870087283599364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>551</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.6570863673626848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5178</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>24.969860635578918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4">
+        <v>452</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.1796788349327292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4">
+        <v>425</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.04947678063365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.48222983073732945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>394</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.8999855331050779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7500</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>36.167237305299707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2500</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>12.055745768433235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>9.6445966147465878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9667F7C9-ABE2-48B9-BB82-B488EAA790E0}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7E6A49-667C-4046-A16E-5C0D3E7AB43F}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>

--- a/CardPayments.xlsx
+++ b/CardPayments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="30540" yWindow="3990" windowWidth="14400" windowHeight="7365"/>
+    <workbookView minimized="1" xWindow="30540" yWindow="3990" windowWidth="14400" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot1" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId4"/>
+    <pivotCache cacheId="77" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45154.500825925927" createdVersion="1" refreshedVersion="6" recordCount="35">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45154.626235532407" createdVersion="1" refreshedVersion="6" recordCount="35">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C36" sheet="Combined"/>
   </cacheSource>
@@ -408,7 +408,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Final_Pivot" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Final_Pivot" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
   <location ref="A1:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">

--- a/CardPayments.xlsx
+++ b/CardPayments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30540" yWindow="3990" windowWidth="14400" windowHeight="7365"/>
+    <workbookView xWindow="30540" yWindow="3990" windowWidth="14400" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot1" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="77" r:id="rId4"/>
+    <pivotCache cacheId="89" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="28">
   <si>
     <t>Expense</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Sum of Value</t>
+  </si>
+  <si>
+    <t>Expense %</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +140,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -173,6 +183,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -192,7 +203,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45154.626235532407" createdVersion="1" refreshedVersion="6" recordCount="35">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45154.643607175924" createdVersion="1" refreshedVersion="6" recordCount="35">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C36" sheet="Combined"/>
   </cacheSource>
@@ -408,7 +419,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Final_Pivot" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Final_Pivot" cacheId="89" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
   <location ref="A1:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
@@ -785,6 +796,9 @@
       <c r="B1" t="s">
         <v>26</v>
       </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -793,9 +807,8 @@
       <c r="B2" s="6">
         <v>354</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C12" si="0">(B2/$B$13)*100</f>
-        <v>1.7070936008101463</v>
+      <c r="C2" s="7">
+        <v>1.7070936008101462E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -805,9 +818,8 @@
       <c r="B3" s="6">
         <v>1283</v>
       </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>6.1870087283599364</v>
+      <c r="C3" s="7">
+        <v>6.1870087283599363E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,9 +829,8 @@
       <c r="B4" s="6">
         <v>551</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>2.6570863673626848</v>
+      <c r="C4" s="7">
+        <v>2.6570863673626849E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,9 +840,8 @@
       <c r="B5" s="6">
         <v>5178</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>24.969860635578918</v>
+      <c r="C5" s="7">
+        <v>0.24969860635578917</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,9 +851,8 @@
       <c r="B6" s="6">
         <v>452</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2.1796788349327292</v>
+      <c r="C6" s="7">
+        <v>2.179678834932729E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,9 +862,8 @@
       <c r="B7" s="6">
         <v>425</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2.04947678063365</v>
+      <c r="C7" s="7">
+        <v>2.0494767806336502E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,9 +873,8 @@
       <c r="B8" s="6">
         <v>100</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.48222983073732945</v>
+      <c r="C8" s="7">
+        <v>4.8222983073732944E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,9 +884,8 @@
       <c r="B9" s="6">
         <v>394</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1.8999855331050779</v>
+      <c r="C9" s="7">
+        <v>1.899985533105078E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,9 +895,8 @@
       <c r="B10" s="6">
         <v>7500</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>36.167237305299707</v>
+      <c r="C10" s="7">
+        <v>0.36167237305299704</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,9 +906,8 @@
       <c r="B11" s="6">
         <v>2500</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>12.055745768433235</v>
+      <c r="C11" s="7">
+        <v>0.12055745768433235</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,9 +917,8 @@
       <c r="B12" s="6">
         <v>2000</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>9.6445966147465878</v>
+      <c r="C12" s="7">
+        <v>9.6445966147465881E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -928,6 +931,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/CardPayments.xlsx
+++ b/CardPayments.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="89" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45154.643607175924" createdVersion="1" refreshedVersion="6" recordCount="35">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45156.383638541665" createdVersion="1" refreshedVersion="6" recordCount="35">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C36" sheet="Combined"/>
   </cacheSource>
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Final_Pivot" cacheId="89" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Final_Pivot" cacheId="6" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
   <location ref="A1:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">

--- a/CardPayments.xlsx
+++ b/CardPayments.xlsx
@@ -173,7 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -184,6 +184,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -203,7 +204,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45156.383638541665" createdVersion="1" refreshedVersion="6" recordCount="35">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45156.453220138887" createdVersion="1" refreshedVersion="6" recordCount="35">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C36" sheet="Combined"/>
   </cacheSource>
@@ -780,7 +781,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,6 +928,10 @@
       </c>
       <c r="B13" s="6">
         <v>20737</v>
+      </c>
+      <c r="C13" s="8">
+        <f>SUM(C2:C12)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
